--- a/biology/Zoologie/Anthobothrium/Anthobothrium.xlsx
+++ b/biology/Zoologie/Anthobothrium/Anthobothrium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Anthobothrium est un genre de vers plats de l'ordre des Tetraphyllidea, de famille incertae sedis selon  World Register of Marine Species                               (28 octobre 2023)[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anthobothrium est un genre de vers plats de l'ordre des Tetraphyllidea, de famille incertae sedis selon  World Register of Marine Species                               (28 octobre 2023).
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (4 août 2019)[3] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (4 août 2019) :
 Anthobothrium altavelae Neifar, Euzet &amp; Ben Hassine, 2002
 Anthobothrium auriculatum (Rudolphi, 1819)
 Anthobothrium bifidum Yamaguti, 1952
@@ -581,7 +595,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Beneden, M. van (Pierre Joseph), 1809-1894, « Recherches sur la faune littorale de Belgique : les vers cestoïdes », Mémoires de l'Académie royale des sciences, des lettres et des beaux-arts de Belgique, vol. 25,‎ 9 février 1850, p. 1-199 (ISSN 0770-7606, OCLC 8767267, DOI 10.5962/BHL.TITLE.47103, lire en ligne)</t>
         </is>
